--- a/Flow_shop/data_hue.xlsx
+++ b/Flow_shop/data_hue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\Flow_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B7051-8B02-4810-9927-C4F0F8AE0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228670B-6649-414E-8ECF-6922E96B92B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD2B9B20-A840-4CC4-98A7-51411A23542D}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
   <si>
     <t>Content</t>
   </si>
@@ -559,6 +559,24 @@
   <si>
     <t>I49</t>
   </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>Production cost</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>Penalty for rejecting an unit of order</t>
+  </si>
+  <si>
+    <t>Penalty for delaying amount of deadlines.</t>
+  </si>
+  <si>
+    <t>pda</t>
+  </si>
 </sst>
 </file>
 
@@ -935,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D723A5B3-154A-4C1A-81C0-259995C556EA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,7 +1016,40 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -22912,8 +22963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234993B5-05EB-4EE2-BC21-9FDEC914DFB0}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22931,7 +22982,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -22939,7 +22990,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -22947,7 +22998,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -22955,7 +23006,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -22963,7 +23014,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -22971,7 +23022,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -22979,7 +23030,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -22987,7 +23038,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -22995,7 +23046,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -23003,7 +23054,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -23011,7 +23062,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -23019,7 +23070,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -23027,7 +23078,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -23035,7 +23086,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -23043,7 +23094,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -23051,7 +23102,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -23059,7 +23110,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -23067,7 +23118,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -23075,7 +23126,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -23083,7 +23134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -23091,7 +23142,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -23099,7 +23150,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -23107,7 +23158,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -23115,7 +23166,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -23123,7 +23174,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -23131,7 +23182,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -23139,7 +23190,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -23147,7 +23198,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -23155,7 +23206,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -23163,7 +23214,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -23171,7 +23222,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -23179,7 +23230,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -23187,7 +23238,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -23195,7 +23246,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -23203,7 +23254,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -23211,7 +23262,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -23219,7 +23270,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -23227,7 +23278,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -23235,7 +23286,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -23243,7 +23294,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -23251,7 +23302,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -23259,7 +23310,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -23267,7 +23318,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -23275,7 +23326,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -23283,7 +23334,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -23291,7 +23342,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -23299,7 +23350,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -23307,7 +23358,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -23315,7 +23366,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -23323,7 +23374,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -23331,7 +23382,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -23339,7 +23390,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -23347,7 +23398,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -23355,7 +23406,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -23363,7 +23414,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -23371,7 +23422,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -23379,7 +23430,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -23387,7 +23438,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -23395,7 +23446,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -23403,7 +23454,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -23411,7 +23462,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -23419,7 +23470,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -23427,7 +23478,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -23435,7 +23486,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -23443,7 +23494,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -23451,7 +23502,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -23459,7 +23510,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -23467,7 +23518,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -23475,7 +23526,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -23483,7 +23534,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -23495,8 +23546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BF8A4A-C56C-4B8E-B81E-DE1666B18388}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24078,8 +24129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3C85BF-412A-4D1C-9C33-30B97E13B79C}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24097,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -24105,7 +24156,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -24113,7 +24164,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -24121,7 +24172,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -24129,7 +24180,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -24137,7 +24188,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -24145,7 +24196,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -24153,7 +24204,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -24161,7 +24212,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -24169,7 +24220,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -24177,7 +24228,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -24185,7 +24236,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -24193,7 +24244,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -24201,7 +24252,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -24209,7 +24260,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -24217,7 +24268,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -24225,7 +24276,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -24233,7 +24284,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -24241,7 +24292,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -24249,7 +24300,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -24257,7 +24308,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -24265,7 +24316,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -24273,7 +24324,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -24281,7 +24332,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -24289,7 +24340,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -24297,7 +24348,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -24305,7 +24356,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -24313,7 +24364,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -24321,7 +24372,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -24329,7 +24380,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -24337,7 +24388,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -24345,7 +24396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -24353,7 +24404,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -24361,7 +24412,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -24369,7 +24420,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -24377,7 +24428,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -24385,7 +24436,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -24393,7 +24444,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -24401,7 +24452,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -24409,7 +24460,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -24417,7 +24468,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -24425,7 +24476,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -24433,7 +24484,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -24441,7 +24492,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -24449,7 +24500,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -24457,7 +24508,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -24465,7 +24516,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -24473,7 +24524,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -24481,7 +24532,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -24489,7 +24540,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -24497,7 +24548,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -24505,7 +24556,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -24513,7 +24564,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -24521,7 +24572,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -24529,7 +24580,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -24537,7 +24588,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -24545,7 +24596,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -24553,7 +24604,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -24561,7 +24612,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -24569,7 +24620,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -24577,7 +24628,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -24585,7 +24636,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -24593,7 +24644,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -24601,7 +24652,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -24609,7 +24660,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -24617,7 +24668,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -24625,7 +24676,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -24633,7 +24684,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -24641,7 +24692,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -24649,7 +24700,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -24661,7 +24712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99B82C-BBE1-4C52-A95E-796F3CFD65C3}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>

--- a/Flow_shop/data_hue.xlsx
+++ b/Flow_shop/data_hue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\Flow_shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425A808-715E-4380-B66B-AB9A9308B24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15445CED-74D7-435B-98CD-FF4C9CDEF389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{FD2B9B20-A840-4CC4-98A7-51411A23542D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{FD2B9B20-A840-4CC4-98A7-51411A23542D}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
@@ -1523,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599BF864-0787-4435-A0B3-5BA4749361A6}">
   <dimension ref="A1:AY101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -20631,8 +20631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3C85BF-412A-4D1C-9C33-30B97E13B79C}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
